--- a/data/similar_sales.xlsx
+++ b/data/similar_sales.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D107514-9867-4D3A-9B80-407681DD57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3BC4-12ED-45E7-A1D8-69716599F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79F008C1-58B3-468B-8603-133C46A8E6EF}"/>
   </bookViews>
@@ -345,13 +345,13 @@
     <t>suburb1</t>
   </si>
   <si>
-    <t>desirability_score</t>
-  </si>
-  <si>
-    <t>Desirability score can be used to subjectively score each property on looks and features</t>
-  </si>
-  <si>
-    <t>Or, set to constant value if you don't want to do that</t>
+    <t>desirability</t>
+  </si>
+  <si>
+    <t>Desirability  can be used to subjectively score each property on looks and features</t>
+  </si>
+  <si>
+    <t>Set to a constant if you don't want to perform scoring</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
     <tableColumn id="5" xr3:uid="{6459616C-F0F4-4801-A905-38C307C94F67}" name="land"/>
     <tableColumn id="6" xr3:uid="{2B1A687C-0BE1-4CBC-818B-696CAD86EB4F}" name="date" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{05780077-D11B-4A20-9852-F03FFA3B38DC}" name="url"/>
-    <tableColumn id="10" xr3:uid="{8A4B69EF-D591-44A7-A17B-8B6467CC4757}" name="desirability_score" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{8A4B69EF-D591-44A7-A17B-8B6467CC4757}" name="desirability" dataDxfId="0" dataCellStyle="Hyperlink"/>
     <tableColumn id="8" xr3:uid="{6C27D4FC-2FFB-4646-A0DD-1129DBE8DD3C}" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1268,8 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/similar_sales.xlsx
+++ b/data/similar_sales.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3BC4-12ED-45E7-A1D8-69716599F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C01FBB-7A3E-418F-A683-115E7604372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79F008C1-58B3-468B-8603-133C46A8E6EF}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{79F008C1-58B3-468B-8603-133C46A8E6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="similar_sales" sheetId="1" r:id="rId1"/>
@@ -54,291 +54,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink001</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink002</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink003</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink004</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink005</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink006</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink007</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink008</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink009</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink010</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink011</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink012</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink013</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink014</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink015</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink016</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink017</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink018</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink019</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink020</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink021</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink022</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink023</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink024</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink025</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink026</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink027</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink028</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink029</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink030</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink031</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink032</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink033</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink034</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink035</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink036</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink037</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink038</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink039</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink040</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink041</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink042</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink043</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink044</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink045</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink046</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink047</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink048</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink049</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink050</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink051</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink052</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink053</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink054</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink055</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink056</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink057</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink058</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink059</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink060</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink061</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink062</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink063</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink064</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink065</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink066</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink067</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink068</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink069</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink070</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink071</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink072</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink073</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink074</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink076</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink077</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink078</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink079</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink080</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink081</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink082</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink083</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink084</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink085</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink086</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink087</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink088</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink089</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink090</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink091</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink092</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink093</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink094</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink095</t>
-  </si>
-  <si>
-    <t>https://www.realestate.com.au/sold/ExampleLink096</t>
-  </si>
-  <si>
     <t>data_model</t>
   </si>
   <si>
@@ -352,6 +67,291 @@
   </si>
   <si>
     <t>Set to a constant if you don't want to perform scoring</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-001</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-002</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-003</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-004</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-005</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-006</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-007</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-008</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-009</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-010</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-011</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-012</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-013</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-014</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-015</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-016</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-017</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-018</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-019</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-020</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-021</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-022</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-023</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-024</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-025</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-026</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-027</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-028</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-029</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-030</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-031</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-032</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-033</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-034</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-035</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-036</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-037</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-038</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-039</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-040</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-041</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-042</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-043</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-044</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-045</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-046</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-047</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-048</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-049</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-050</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-051</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-052</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-053</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-054</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-055</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-056</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-057</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-058</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-059</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-060</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-061</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-062</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-063</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-064</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-065</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-066</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-067</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-068</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-069</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-070</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-071</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-072</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-073</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-074</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-075</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-076</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-077</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-078</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-079</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-080</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-081</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-082</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-083</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-084</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-085</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-086</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-087</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-088</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-089</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-090</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-091</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-092</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-093</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-094</t>
+  </si>
+  <si>
+    <t>https://real-estate-website/sold/Property-095</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1268,14 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -1328,18 +1328,18 @@
         <v>45555</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1250000</v>
@@ -1360,18 +1360,18 @@
         <v>45554</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1295000</v>
@@ -1392,7 +1392,7 @@
         <v>45553</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1150000</v>
@@ -1421,7 +1421,7 @@
         <v>45540</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1130000</v>
@@ -1450,7 +1450,7 @@
         <v>45497</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1050000</v>
@@ -1479,7 +1479,7 @@
         <v>45496</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1040000</v>
@@ -1508,7 +1508,7 @@
         <v>45484</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1240000</v>
@@ -1537,7 +1537,7 @@
         <v>45483</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1170000</v>
@@ -1566,7 +1566,7 @@
         <v>45496</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1280000</v>
@@ -1595,7 +1595,7 @@
         <v>45463</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>9</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1277000</v>
@@ -1624,7 +1624,7 @@
         <v>45462</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>972000</v>
@@ -1653,7 +1653,7 @@
         <v>45457</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>975000</v>
@@ -1682,7 +1682,7 @@
         <v>45455</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>930000</v>
@@ -1711,7 +1711,7 @@
         <v>45446</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1050000</v>
@@ -1740,7 +1740,7 @@
         <v>45426</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>7</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>1130000</v>
@@ -1769,7 +1769,7 @@
         <v>45420</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1100000</v>
@@ -1798,7 +1798,7 @@
         <v>45415</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>990000</v>
@@ -1827,7 +1827,7 @@
         <v>45415</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>925000</v>
@@ -1856,7 +1856,7 @@
         <v>45415</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>1100000</v>
@@ -1885,7 +1885,7 @@
         <v>45385</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>1030000</v>
@@ -1914,7 +1914,7 @@
         <v>45415</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>895100</v>
@@ -1943,7 +1943,7 @@
         <v>45368</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>1200000</v>
@@ -1972,7 +1972,7 @@
         <v>45354</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>9</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>1080000</v>
@@ -2001,7 +2001,7 @@
         <v>45344</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I25">
         <v>8</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>1160000</v>
@@ -2030,7 +2030,7 @@
         <v>45340</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>1150000</v>
@@ -2059,7 +2059,7 @@
         <v>45338</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>1085000</v>
@@ -2088,7 +2088,7 @@
         <v>45324</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>1005000</v>
@@ -2117,7 +2117,7 @@
         <v>45321</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>8</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>1200000</v>
@@ -2146,7 +2146,7 @@
         <v>45310</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I30">
         <v>8</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>1300000</v>
@@ -2175,7 +2175,7 @@
         <v>45300</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I31">
         <v>9</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1020000</v>
@@ -2204,7 +2204,7 @@
         <v>45300</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I32">
         <v>8</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>1035000</v>
@@ -2233,7 +2233,7 @@
         <v>45280</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I33">
         <v>8</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>880000</v>
@@ -2262,7 +2262,7 @@
         <v>45273</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>1150000</v>
@@ -2291,7 +2291,7 @@
         <v>45267</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I35">
         <v>8</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>990000</v>
@@ -2320,7 +2320,7 @@
         <v>45264</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I36">
         <v>8</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>1089000</v>
@@ -2349,7 +2349,7 @@
         <v>45238</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>965000</v>
@@ -2378,7 +2378,7 @@
         <v>45212</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <v>8</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>929000</v>
@@ -2407,7 +2407,7 @@
         <v>45207</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I39">
         <v>8</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>821000</v>
@@ -2436,7 +2436,7 @@
         <v>45567</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>905000</v>
@@ -2465,7 +2465,7 @@
         <v>45197</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I41">
         <v>8</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>875000</v>
@@ -2494,7 +2494,7 @@
         <v>45197</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I42">
         <v>7</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>1250000</v>
@@ -2523,7 +2523,7 @@
         <v>45186</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I43">
         <v>9</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>770000</v>
@@ -2552,7 +2552,7 @@
         <v>45184</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I44">
         <v>7</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>1000000</v>
@@ -2581,7 +2581,7 @@
         <v>45180</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I45">
         <v>8</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>791000</v>
@@ -2610,7 +2610,7 @@
         <v>45180</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I46">
         <v>6</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>750000</v>
@@ -2639,7 +2639,7 @@
         <v>45184</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I47">
         <v>7</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>901003</v>
@@ -2668,7 +2668,7 @@
         <v>45124</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I48">
         <v>8</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>951000</v>
@@ -2697,7 +2697,7 @@
         <v>45119</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>761488</v>
@@ -2726,7 +2726,7 @@
         <v>45272</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I50">
         <v>7</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>965000</v>
@@ -2755,7 +2755,7 @@
         <v>45118</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I51">
         <v>8</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>825000</v>
@@ -2784,7 +2784,7 @@
         <v>45117</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>908000</v>
@@ -2813,7 +2813,7 @@
         <v>45103</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I53">
         <v>7</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>740000</v>
@@ -2842,7 +2842,7 @@
         <v>45103</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I54">
         <v>6</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>930000</v>
@@ -2871,7 +2871,7 @@
         <v>45101</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I55">
         <v>8</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>1020000</v>
@@ -2900,7 +2900,7 @@
         <v>45097</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I56">
         <v>7</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>950000</v>
@@ -2929,7 +2929,7 @@
         <v>45093</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I57">
         <v>8</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>735000</v>
@@ -2958,7 +2958,7 @@
         <v>45090</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I58">
         <v>7</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>1100000</v>
@@ -2987,7 +2987,7 @@
         <v>45089</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I59">
         <v>8</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>711000</v>
@@ -3016,7 +3016,7 @@
         <v>45084</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I60">
         <v>6</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>1100000</v>
@@ -3045,7 +3045,7 @@
         <v>45062</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I61">
         <v>8</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>980000</v>
@@ -3074,7 +3074,7 @@
         <v>45067</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I62">
         <v>7</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>740000</v>
@@ -3103,7 +3103,7 @@
         <v>45066</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>990000</v>
@@ -3132,7 +3132,7 @@
         <v>45021</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I64">
         <v>8</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>845000</v>
@@ -3161,7 +3161,7 @@
         <v>45019</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I65">
         <v>7</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>990000</v>
@@ -3190,7 +3190,7 @@
         <v>45016</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I66">
         <v>8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>939000</v>
@@ -3219,7 +3219,7 @@
         <v>45008</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I67">
         <v>8</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>886000</v>
@@ -3248,7 +3248,7 @@
         <v>45008</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I68">
         <v>8</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>1060000</v>
@@ -3277,7 +3277,7 @@
         <v>45005</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I69">
         <v>8</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>705000</v>
@@ -3306,7 +3306,7 @@
         <v>44993</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I70">
         <v>6</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>830000</v>
@@ -3335,7 +3335,7 @@
         <v>44985</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I71">
         <v>7</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>890000</v>
@@ -3364,7 +3364,7 @@
         <v>44981</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I72">
         <v>7</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>888000</v>
@@ -3393,7 +3393,7 @@
         <v>44981</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I73">
         <v>8</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>823000</v>
@@ -3422,7 +3422,7 @@
         <v>44981</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I74">
         <v>8</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>750000</v>
@@ -3451,7 +3451,7 @@
         <v>44972</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I75">
         <v>6</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>938000</v>
@@ -3480,7 +3480,7 @@
         <v>44967</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I76">
         <v>8</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>862000</v>
@@ -3509,7 +3509,7 @@
         <v>44966</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I77">
         <v>7</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>930000</v>
@@ -3538,7 +3538,7 @@
         <v>44963</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I78">
         <v>7</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>999000</v>
@@ -3567,7 +3567,7 @@
         <v>44956</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I79">
         <v>8</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>950000</v>
@@ -3596,7 +3596,7 @@
         <v>44950</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I80">
         <v>7</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>750000</v>
@@ -3625,7 +3625,7 @@
         <v>44950</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I81">
         <v>7</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>665000</v>
@@ -3654,7 +3654,7 @@
         <v>44949</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I82">
         <v>6</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>850000</v>
@@ -3683,7 +3683,7 @@
         <v>44946</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I83">
         <v>7</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>1100000</v>
@@ -3712,7 +3712,7 @@
         <v>44936</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I84">
         <v>7</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>985000</v>
@@ -3741,7 +3741,7 @@
         <v>44928</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I85">
         <v>7</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>827500</v>
@@ -3770,7 +3770,7 @@
         <v>44923</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I86">
         <v>7</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>670000</v>
@@ -3799,7 +3799,7 @@
         <v>44918</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I87">
         <v>7</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>999000</v>
@@ -3828,7 +3828,7 @@
         <v>44916</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I88">
         <v>7</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>900000</v>
@@ -3857,7 +3857,7 @@
         <v>44914</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I89">
         <v>8</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>935000</v>
@@ -3886,7 +3886,7 @@
         <v>44909</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I90">
         <v>8</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>835000</v>
@@ -3915,7 +3915,7 @@
         <v>44900</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I91">
         <v>7</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>950000</v>
@@ -3944,7 +3944,7 @@
         <v>44895</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I92">
         <v>7</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>895000</v>
@@ -3973,7 +3973,7 @@
         <v>44894</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I93">
         <v>8</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B94">
         <v>1050000</v>
@@ -4002,7 +4002,7 @@
         <v>44888</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I94">
         <v>8</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>795000</v>
@@ -4031,7 +4031,7 @@
         <v>44888</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I95">
         <v>6</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B96">
         <v>770000</v>
@@ -4060,7 +4060,7 @@
         <v>44887</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I96">
         <v>6</v>
@@ -4069,8 +4069,8 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{8870417F-39CB-43A7-862E-B636CDE5AC9F}"/>
-    <hyperlink ref="H3:H96" r:id="rId2" display="https://www.realestate.com.au/sold/ExampleLink001" xr:uid="{B3B998D4-EB72-4F3D-B7E0-FE1F5C86B579}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{8AA03B1F-4A89-4D26-BAFF-487C3E3A26DA}"/>
+    <hyperlink ref="H3:H96" r:id="rId2" display="https://real-estate-website/sold/Property-001" xr:uid="{5158A0A9-15D5-4E68-B7F3-E1888427F965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
